--- a/チーム制作_ガントチャート.xlsx
+++ b/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\いろんなやつ\エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\エクセル\進歩\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -176,6 +176,10 @@
     <rPh sb="8" eb="10">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なんもしてません</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -677,6 +681,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,15 +697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,23 +985,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1030,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1101,7 +1105,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1117,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="46" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="2"/>
@@ -1140,7 +1144,7 @@
       <c r="X3" s="35"/>
       <c r="Y3" s="36"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1154,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="50"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1169,7 +1173,7 @@
       <c r="X4" s="38"/>
       <c r="Y4" s="39"/>
     </row>
-    <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1183,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="50"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1198,7 +1202,7 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="39"/>
     </row>
-    <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1212,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="50"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1227,7 +1231,7 @@
       <c r="X6" s="38"/>
       <c r="Y6" s="39"/>
     </row>
-    <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1241,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1256,7 +1260,7 @@
       <c r="X7" s="38"/>
       <c r="Y7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1270,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1285,7 +1289,7 @@
       <c r="X8" s="41"/>
       <c r="Y8" s="42"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1312,7 +1316,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1339,7 +1343,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1372,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>43831</v>
@@ -1443,7 +1447,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1478,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1507,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1536,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1565,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1594,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1623,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="Q20" s="1"/>
     </row>
   </sheetData>
@@ -1648,17 +1652,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1691,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1762,7 +1766,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1795,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -1884,17 +1888,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1927,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1998,7 +2002,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2031,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2116,22 +2120,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2164,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2235,12 +2239,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2273,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2362,47 +2366,47 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="48"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2477,7 +2481,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2510,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2595,21 +2599,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2643,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2713,7 +2718,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2752,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2835,17 +2845,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2884,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2949,7 +2959,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2988,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>

--- a/チーム制作_ガントチャート.xlsx
+++ b/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\エクセル\進歩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -180,6 +180,13 @@
   </si>
   <si>
     <t>なんもしてません</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドラゴン羽</t>
+    <rPh sb="4" eb="5">
+      <t>ハネ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -985,23 +992,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1037,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1105,7 +1112,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1151,7 @@
       <c r="X3" s="35"/>
       <c r="Y3" s="36"/>
     </row>
-    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1180,7 @@
       <c r="X4" s="38"/>
       <c r="Y4" s="39"/>
     </row>
-    <row r="5" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1209,7 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="39"/>
     </row>
-    <row r="6" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1238,7 @@
       <c r="X6" s="38"/>
       <c r="Y6" s="39"/>
     </row>
-    <row r="7" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1267,7 @@
       <c r="X7" s="38"/>
       <c r="Y7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1296,7 @@
       <c r="X8" s="41"/>
       <c r="Y8" s="42"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1316,7 +1323,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1343,7 +1350,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1379,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>43831</v>
@@ -1447,7 +1454,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1485,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1514,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +1543,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1572,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1601,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1630,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Q20" s="1"/>
     </row>
   </sheetData>
@@ -1652,17 +1659,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1698,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1766,7 +1773,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1802,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -1888,17 +1895,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1934,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2002,7 +2009,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2038,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2124,18 +2131,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2171,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2239,12 +2246,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2280,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2362,22 +2369,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2414,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="51"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2481,7 +2489,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2523,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2599,22 +2612,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2656,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2718,12 +2731,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2765,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2845,17 +2858,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2897,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2959,7 +2972,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +3001,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>

--- a/チーム制作_ガントチャート.xlsx
+++ b/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー\3DGame_Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -186,6 +186,13 @@
     <t>ドラゴン羽</t>
     <rPh sb="4" eb="5">
       <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画書</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -992,23 +999,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1044,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1112,7 +1119,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1158,7 @@
       <c r="X3" s="35"/>
       <c r="Y3" s="36"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1187,7 @@
       <c r="X4" s="38"/>
       <c r="Y4" s="39"/>
     </row>
-    <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1216,7 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="39"/>
     </row>
-    <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1245,7 @@
       <c r="X6" s="38"/>
       <c r="Y6" s="39"/>
     </row>
-    <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1274,7 @@
       <c r="X7" s="38"/>
       <c r="Y7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1303,7 @@
       <c r="X8" s="41"/>
       <c r="Y8" s="42"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1323,7 +1330,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1350,7 +1357,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1386,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>43831</v>
@@ -1454,7 +1461,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1492,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1521,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1550,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1579,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1608,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1630,7 +1637,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="Q20" s="1"/>
     </row>
   </sheetData>
@@ -1659,17 +1666,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1705,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1773,7 +1780,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1809,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -1891,21 +1898,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1941,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2009,7 +2016,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2050,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2131,18 +2143,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2183,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2246,12 +2258,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2292,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2369,23 +2381,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2426,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="51"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2489,12 +2501,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2535,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2616,18 +2628,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2668,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2731,12 +2743,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2777,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2858,17 +2870,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2909,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2972,7 +2984,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3013,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>

--- a/チーム制作_ガントチャート.xlsx
+++ b/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー\3DGame_Progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー (2)\3DGame_Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -193,6 +193,13 @@
     <t>企画書</t>
     <rPh sb="0" eb="3">
       <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -999,23 +1006,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1051,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1119,7 +1126,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1165,7 @@
       <c r="X3" s="35"/>
       <c r="Y3" s="36"/>
     </row>
-    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1194,7 @@
       <c r="X4" s="38"/>
       <c r="Y4" s="39"/>
     </row>
-    <row r="5" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1223,7 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="39"/>
     </row>
-    <row r="6" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1252,7 @@
       <c r="X6" s="38"/>
       <c r="Y6" s="39"/>
     </row>
-    <row r="7" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1281,7 @@
       <c r="X7" s="38"/>
       <c r="Y7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1310,7 @@
       <c r="X8" s="41"/>
       <c r="Y8" s="42"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1330,7 +1337,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1357,7 +1364,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1393,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>43831</v>
@@ -1461,7 +1468,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1499,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1528,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1550,7 +1557,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1586,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1615,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1644,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Q20" s="1"/>
     </row>
   </sheetData>
@@ -1666,17 +1673,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1712,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1780,7 +1787,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1816,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -1898,21 +1905,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1948,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2016,12 +2023,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2057,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2143,18 +2150,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2190,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2258,12 +2265,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2299,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2385,19 +2392,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2433,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="51"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2501,12 +2508,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2535,7 +2542,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2628,18 +2635,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2675,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2743,12 +2750,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2777,7 +2784,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2866,21 +2873,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2916,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2984,7 +2991,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3025,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>

--- a/チーム制作_ガントチャート.xlsx
+++ b/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー (2)\3DGame_Progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\3DGame_Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -200,6 +200,16 @@
     <t>仕様書</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル制作開始</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1669,17 +1679,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1785,6 +1796,11 @@
       </c>
       <c r="Y2" s="3">
         <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
@@ -2873,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/チーム制作_ガントチャート.xlsx
+++ b/チーム制作_ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>なんもしてません</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ドラゴン羽</t>
     <rPh sb="4" eb="5">
       <t>ハネ</t>
@@ -210,6 +206,13 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Git教えました</t>
+    <rPh sb="3" eb="4">
+      <t>オシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1016,23 +1019,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1136,7 +1139,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1178,7 @@
       <c r="X3" s="35"/>
       <c r="Y3" s="36"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1207,7 @@
       <c r="X4" s="38"/>
       <c r="Y4" s="39"/>
     </row>
-    <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1236,7 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="39"/>
     </row>
-    <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="X6" s="38"/>
       <c r="Y6" s="39"/>
     </row>
-    <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1294,7 @@
       <c r="X7" s="38"/>
       <c r="Y7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1320,7 +1323,7 @@
       <c r="X8" s="41"/>
       <c r="Y8" s="42"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1347,7 +1350,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1374,7 +1377,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>43831</v>
@@ -1478,7 +1481,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +1570,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1596,7 +1599,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1628,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +1657,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="Q20" s="1"/>
     </row>
   </sheetData>
@@ -1679,22 +1682,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1726,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1798,12 +1801,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1835,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -1925,17 +1928,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1967,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2039,12 +2042,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2076,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2166,18 +2169,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2209,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2281,12 +2284,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2318,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2408,19 +2411,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2452,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="51"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2524,12 +2527,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2561,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2647,22 +2650,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2694,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2766,12 +2769,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2803,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
@@ -2893,17 +2896,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2935,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -3007,12 +3010,12 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3044,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
